--- a/doc/02.画面設計/画面設計書.xlsx
+++ b/doc/02.画面設計/画面設計書.xlsx
@@ -5,12 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c555611ed1615c39/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="8_{C853043E-FEE8-4F97-A76C-2984342699A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{830F05D8-376C-4AA2-A4E0-8865FC5C0CF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB9403-EDC0-456C-B913-59EC81AF4BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" tabRatio="788" firstSheet="2" activeTab="5" xr2:uid="{E04097C9-7F50-4AF4-8BDF-3B1ACEA48152}"/>
+    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" tabRatio="788" firstSheet="3" activeTab="6" xr2:uid="{E04097C9-7F50-4AF4-8BDF-3B1ACEA48152}"/>
+    <workbookView xWindow="-7380" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{11B314EC-0D2A-401F-9E13-757DA02595F8}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <sheet name="Ｂ－２．ユーザーを追加する（エラー発生時）" sheetId="7" r:id="rId4"/>
     <sheet name="Ｂ－３．ユーザーを追加する（確認）" sheetId="8" r:id="rId5"/>
     <sheet name="Ｂ－４．ユーザー登録完了のお知らせ" sheetId="9" r:id="rId6"/>
-    <sheet name="ｄ" sheetId="5" r:id="rId7"/>
+    <sheet name="Ｃ．ＴＯＰ画面（つぶやき一覧画面）" sheetId="5" r:id="rId7"/>
     <sheet name="ｓ" sheetId="3" r:id="rId8"/>
     <sheet name="目次 (4)" sheetId="4" r:id="rId9"/>
   </sheets>
@@ -44,41 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Ｃ．ＴＯＰ画面（つぶやき一覧画面）</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>イチランガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ｃ－１．全つぶやき表示</t>
-    <rPh sb="4" eb="5">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ｃ－２．フォローしたユーザーのつぶやき表示</t>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ｃ－３．フォローしたユーザーのつぶやき表示</t>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Ａ．ログイン画面</t>
     <rPh sb="6" eb="8">
@@ -133,6 +100,102 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Ｃ．ＴＯＰ画面（全つぶやき一覧）</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｃ－１．フォロワーのつぶやき一覧</t>
+    <rPh sb="14" eb="16">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｃ－２．トークルーム一覧</t>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｄ．ユーザー情報修正画面</t>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｄ－１．ユーザー情報を修正する（通常）</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｄ－２．ユーザー情報を修正する（エラー発生時）</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｄ－３．ユーザー情報を修正する（確認）</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｄ－４．ユーザー情報修正完了のお知らせ</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｃ－３．つぶやく</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -183,14 +246,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -653,7 +713,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4114800" cy="685800"/>
+    <xdr:ext cx="5943600" cy="685800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
@@ -668,12 +728,17 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4114800" cy="685800"/>
+          <a:ext cx="5943600" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -701,6 +766,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
@@ -793,10 +861,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2159566" cy="564514"/>
     <xdr:sp macro="" textlink="">
@@ -812,11 +880,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="228600"/>
+          <a:off x="6076950" y="1352550"/>
           <a:ext cx="2159566" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
-          <a:avLst/>
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -46105"/>
+            <a:gd name="adj6" fmla="val -45344"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln/>
       </xdr:spPr>
@@ -1445,71 +1520,6 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4114800" cy="685800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33F1FD16-1D20-4246-A66E-8AE1D75217BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4114800" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Ｔｗｉｔｔｅｒ　Ｍｏｄｏｋｉ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>47200</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -2404,6 +2414,79 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5943600" cy="685800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FA2382-B623-437B-855F-D23948ED647B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5943600" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Ｔｗｉｔｔｅｒ　Ｍｏｄｏｋｉ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2856,71 +2939,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4114800" cy="685800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB68DEF6-E18F-4C5E-91D8-5C8019EF6ECB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4114800" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Ｔｗｉｔｔｅｒ　Ｍｏｄｏｋｉ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3550,9 +3568,9 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>216080</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4685385" cy="2088970"/>
+      <xdr:rowOff>220842</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4967514" cy="2088970"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="正方形/長方形 23">
@@ -3566,8 +3584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629400" y="1587680"/>
-          <a:ext cx="4685385" cy="2088970"/>
+          <a:off x="6629400" y="1592442"/>
+          <a:ext cx="4967514" cy="2088970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3653,7 +3671,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・アカウント名　→　空白チェック</a:t>
+            <a:t>・アカウント名　→　空白チェック、文字数チェック</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3664,7 +3682,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・メールアドレス　→　空白チェック、正規表現チェック</a:t>
+            <a:t>・メールアドレス　→　空白チェック、文字数チェック、正規表現チェック</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3675,7 +3693,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・ニックネーム　→　空白チェック</a:t>
+            <a:t>・ニックネーム　→　空白チェック、文字数チェック</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3767,30 +3785,20 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="6801349" cy="2797048"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1431DA4F-B5B4-4102-BD85-4635C4664BF3}"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C63A69F-F1AD-4CF7-83F5-BF2F534DDE45}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3798,577 +3806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="226219" y="904875"/>
-          <a:ext cx="2714625" cy="226219"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>アカウント名（ユーザーＩＤ）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B503216A-7AF0-4C48-826A-A2C9773BE4DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="226219" y="1366836"/>
-          <a:ext cx="2714625" cy="216695"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>メールアドレス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0416DF-6821-42D0-BE03-065274805547}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="457200" y="4802037"/>
-          <a:ext cx="1143000" cy="455763"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>はい</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919156B2-40A3-4356-9938-BABC76D293FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057400" y="4802037"/>
-          <a:ext cx="1143000" cy="455763"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>いいえ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4114800" cy="685800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD023DE-0238-4279-A0F9-894052A5E31D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4114800" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Ｔｗｉｔｔｅｒ　Ｍｏｄｏｋｉ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>2367</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2ECB46-420D-4282-AACF-2374BFA3C31F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="4114800"/>
-          <a:ext cx="4574367" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>上記の内容で登録します。よろしいですか？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09079886-8C92-4281-B561-2AD50DCCF56F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="226219" y="1809750"/>
-          <a:ext cx="2714625" cy="226219"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ニックネーム（一覧画面での表示名）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>227163</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1780F75-5445-497D-BC37-7C883637574F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3657600" y="4800600"/>
-          <a:ext cx="1828800" cy="455763"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ログイン画面へ戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4557658" cy="564385"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CC5B2B-8E07-4B66-8F21-6A4BBE11500C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5029200" y="1143000"/>
-          <a:ext cx="4557658" cy="564385"/>
+          <a:off x="6629400" y="4114800"/>
+          <a:ext cx="6801349" cy="2797048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4403,7 +3842,7 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>「Ｂ－１．ユーザーを追加する（通常）」で入力した内容を表示する</a:t>
+            <a:t>エラーメッセージ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
@@ -4413,13 +3852,173 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・空白チェック　→　「入力必須項目です。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・文字数チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　アカウント名　→　「アカウント名は５０文字以下で入力して下さい。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　メールアドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　→　「メールアドレスは５０文字以下で入力して下さい。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　ニックネーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　→　「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ニックネーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>は５０文字以下で入力して下さい。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・正規表現チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　メールアドレス　→　「メールアドレスは </a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>※</a:t>
+            <a:t>xxx@xxx</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
@@ -4427,32 +4026,150 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>パスワードのみ表示しない</a:t>
+            <a:t> の形式で入力して下さい。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　パスワード　→　「パスワードは半角英数大文字小文字１文字含む８文字以上で入力して下さい。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ダブルチェック　→　「パスワードが一致しません。」</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5943600" cy="685800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18FAE13F-550D-4516-BF1F-92EAE9F32F3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5943600" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Ｔｗｉｔｔｅｒ　Ｍｏｄｏｋｉ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DAEF35-DCDB-4E64-83C7-D134A6B2F23A}"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1431DA4F-B5B4-4102-BD85-4635C4664BF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4460,8 +4177,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2940844" y="904875"/>
-          <a:ext cx="2714625" cy="226219"/>
+          <a:off x="923925" y="914400"/>
+          <a:ext cx="2743200" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4500,7 +4217,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>：　入力内容</a:t>
+            <a:t>アカウント名（ユーザーＩＤ）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
@@ -4516,23 +4233,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
+      <xdr:rowOff>9523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482E4B15-547E-4041-A122-A67CD36DB392}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B503216A-7AF0-4C48-826A-A2C9773BE4DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,8 +4257,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2940844" y="1357313"/>
-          <a:ext cx="2714625" cy="226219"/>
+          <a:off x="923925" y="1381123"/>
+          <a:ext cx="2743200" cy="219077"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4580,7 +4297,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>：　入力内容</a:t>
+            <a:t>メールアドレス</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
@@ -4596,23 +4313,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E505809-FC65-4B44-B604-A43ED8107072}"/>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0416DF-6821-42D0-BE03-065274805547}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4620,8 +4337,134 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2940844" y="1809750"/>
-          <a:ext cx="2714625" cy="226219"/>
+          <a:off x="457200" y="3211362"/>
+          <a:ext cx="1143000" cy="455763"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>はい</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919156B2-40A3-4356-9938-BABC76D293FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="3211362"/>
+          <a:ext cx="1143000" cy="455763"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>いいえ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2ECB46-420D-4282-AACF-2374BFA3C31F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="226219" y="2497931"/>
+          <a:ext cx="5429250" cy="226219"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4651,7 +4494,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -4660,7 +4503,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>：　入力内容</a:t>
+            <a:t>上記の内容で登録します。よろしいですか？</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
@@ -4674,12 +4517,483 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09079886-8C92-4281-B561-2AD50DCCF56F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="1828800"/>
+          <a:ext cx="2743200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ニックネーム（一覧画面での表示名）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1780F75-5445-497D-BC37-7C883637574F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3209925"/>
+          <a:ext cx="1828800" cy="455763"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ログイン画面へ戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4557658" cy="564385"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CC5B2B-8E07-4B66-8F21-6A4BBE11500C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724525" y="1143000"/>
+          <a:ext cx="4557658" cy="564385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>「Ｂ－１．ユーザーを追加する（通常）」で入力した内容を表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>パスワードのみ表示しない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DAEF35-DCDB-4E64-83C7-D134A6B2F23A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="914400"/>
+          <a:ext cx="2743200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>：　入力内容</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{482E4B15-547E-4041-A122-A67CD36DB392}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="1371600"/>
+          <a:ext cx="2743200" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>：　入力内容</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E505809-FC65-4B44-B604-A43ED8107072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="1828800"/>
+          <a:ext cx="2743200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>：　入力内容</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4135043" cy="1272464"/>
     <xdr:sp macro="" textlink="">
@@ -4695,7 +5009,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="5715000"/>
+          <a:off x="1828800" y="4124325"/>
           <a:ext cx="4135043" cy="1272464"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
@@ -4735,7 +5049,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>・はい　→　Ａ．ログイン画面へ遷移</a:t>
+            <a:t>・はい　→　Ｂ－４．ユーザー登録完了のお知らせへ遷移</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
@@ -4786,14 +5100,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4808,7 +5122,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314325" y="4676775"/>
+          <a:off x="314325" y="3086100"/>
           <a:ext cx="5314950" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4851,14 +5165,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4875,7 +5189,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4343400" y="914400"/>
+          <a:off x="5038725" y="914400"/>
           <a:ext cx="542925" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -4915,11 +5229,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4927,13 +5236,13 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4114800" cy="685800"/>
+    <xdr:ext cx="5943600" cy="685800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C206A053-0506-4AE6-B7CB-7498813377AE}"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5BF5AC8-91D6-4FE2-B808-D150BF1E0FEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4942,12 +5251,17 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4114800" cy="685800"/>
+          <a:ext cx="5943600" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln w="9525" cmpd="sng">
           <a:noFill/>
         </a:ln>
@@ -4975,6 +5289,9 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
@@ -4985,15 +5302,20 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>227163</xdr:rowOff>
@@ -5011,7 +5333,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="2057400"/>
+          <a:off x="1371600" y="2057400"/>
           <a:ext cx="3200400" cy="455763"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5050,13 +5372,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>227163</xdr:rowOff>
@@ -5074,7 +5396,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="2971800"/>
+          <a:off x="1371600" y="2971800"/>
           <a:ext cx="3200400" cy="455763"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5111,89 +5433,9 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>227134</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>224740</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB7CCA1-F595-4D85-B0D7-48EA988AE0D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="227135" y="908538"/>
-          <a:ext cx="4540297" cy="227135"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>登録が完了しました。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5212,7 +5454,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572000" y="1828800"/>
+          <a:off x="5486400" y="1828800"/>
           <a:ext cx="1877437" cy="328360"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
@@ -5270,7 +5512,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -5289,7 +5531,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572000" y="2743200"/>
+          <a:off x="5486400" y="2743200"/>
           <a:ext cx="2018501" cy="328360"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
@@ -5357,30 +5599,329 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5943600" cy="685800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98237475-3C4B-4CAE-9E05-4B7900771DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5943600" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Ｔｗｉｔｔｅｒ　Ｍｏｄｏｋｉ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1466</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B31ACD-9354-456F-8EF7-9312628E0B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="1143000"/>
+          <a:ext cx="5486400" cy="230066"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>登録が完了しました。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5943600" cy="685800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B808EC2-EF98-4DAF-BF9A-C6BEB63389F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5943600" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Ｔｗｉｔｔｅｒ　Ｍｏｄｏｋｉ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4343400" cy="685800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBE659D-3D75-4192-9470-7D9F2DAC771E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="0"/>
+          <a:ext cx="4343400" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ログイン中：〇〇</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>226233</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{887F92F1-92AB-492C-9E61-5656FDAC4C53}"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2D7094-D71C-4F87-B5A3-BAC067C7B6B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5388,8 +5929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="226233" y="1372530"/>
-          <a:ext cx="1600199" cy="228600"/>
+          <a:off x="0" y="1143000"/>
+          <a:ext cx="11201400" cy="5715000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5424,17 +5965,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ユーザー名：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -5446,25 +5977,387 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="685800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2726D4-96BC-4FC6-9120-8F7A3B111ED7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="0"/>
+          <a:ext cx="914400" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>メニュー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2286000" cy="466725"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8E701D0-99E7-43B0-A39B-B0E8D797E227}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="685800"/>
+          <a:ext cx="2286000" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>フォロワーのつぶやき</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2286000" cy="466725"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE5D10EF-B857-4BA7-905B-1AA3B5A9A19E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="685800"/>
+          <a:ext cx="2286000" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>トークルーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2286000" cy="466725"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E6D999-90A4-D621-2E22-FDD84E462F49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="685800"/>
+          <a:ext cx="2286000" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>全つぶやき一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4343400" cy="466725"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE7527E-897C-43D4-896E-68F23BA1DF0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="685800"/>
+          <a:ext cx="4343400" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B253E2C9-87CA-4EC6-8A80-22472905FEEB}"/>
+        <xdr:cNvPr id="50" name="四角形: 角を丸くする 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D7FC98-B420-43DD-A448-E8BC881CA504}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5472,8 +6365,360 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="226232" y="2058330"/>
-          <a:ext cx="1600200" cy="228600"/>
+          <a:off x="333375" y="609600"/>
+          <a:ext cx="6076950" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="四角形: 角を丸くする 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDE76532-685D-43FA-9286-44D85C66BE29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="1295400"/>
+          <a:ext cx="3838575" cy="4533900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7917"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="四角形: 角を丸くする 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1C6795-470C-4C3D-9DFA-D9DE4D79CE03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7429500" y="142875"/>
+          <a:ext cx="3676650" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4929426" cy="1272464"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="吹き出し: 折線 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75CE8B5-855E-423A-9849-A3F9402C65E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="914400"/>
+          <a:ext cx="4929426" cy="1272464"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -19023"/>
+            <a:gd name="adj6" fmla="val -19440"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>・ログイン中：〇〇　→　ログインしたユーザーのニックネームを表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>・メニュー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>　・ユーザー情報編集　→　へ遷移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>　・フォロワー一覧</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　→　へ遷移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>　・ログアウト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　→　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Ａ．ログイン画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>へ遷移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC03E1A2-1D27-4794-B902-FA35A85C8EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="6172200"/>
+          <a:ext cx="9372600" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5508,90 +6753,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>パスワード：</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0645AB69-B8C2-443B-AE73-3D5FB138A755}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1826432" y="1371600"/>
-          <a:ext cx="4574368" cy="229530"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -5606,23 +6767,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>226740</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC74BD15-1C86-493C-BE63-B562889DD9CF}"/>
+        <xdr:cNvPr id="61" name="四角形: 角を丸くする 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF8338A-C962-4F79-A192-D75A4D5614C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5630,81 +6791,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1826940" y="2058330"/>
-          <a:ext cx="4571492" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2367</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D31E0F-06DD-49F6-8976-B75BDA4E6194}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="912032" y="2745567"/>
+          <a:off x="9829800" y="6173637"/>
           <a:ext cx="1143000" cy="455763"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5734,32 +6821,27 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>新規登録</a:t>
+            <a:t>つぶやく</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2367</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
-    </xdr:to>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>207513</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4826449" cy="800412"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10FCBCDD-F126-484E-9B65-251CA126E419}"/>
+        <xdr:cNvPr id="52" name="吹き出し: 折線 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41E3C0D-CDA4-48F1-94D6-E97E945DE174}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5767,43 +6849,1067 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2512232" y="2745567"/>
-          <a:ext cx="1143000" cy="455763"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
+          <a:off x="8665713" y="2514600"/>
+          <a:ext cx="4826449" cy="800412"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -146354"/>
+            <a:gd name="adj6" fmla="val -51016"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent4">
             <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent4"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ログイン</a:t>
+            <a:t>・全つぶやき一覧　→　初期画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>・フォロワーのつぶやき　→　Ｃ－１．フォロワーのつぶやき一覧へ遷移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>・トークルーム　→　へ遷移</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>182178</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4679743" cy="3033074"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="吹き出し: 折線 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568841A3-90D2-40A2-8C91-9CCE1DA77A89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="3611178"/>
+          <a:ext cx="4679743" cy="3033074"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val -2225"/>
+            <a:gd name="adj6" fmla="val -47627"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>つぶやき構成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ログインユーザー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>・ユーザー名　→　投稿したユーザーのニックネームを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>・削除ボタン　→　投稿を削除する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>・つぶやきの内容　→　つぶやきの内容を表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>・投稿日時　→　「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>Y-m-d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1" baseline="0"/>
+            <a:t> H:i:s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>」形式で表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ログインユーザー以外</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・ユーザー名　→　投稿したユーザーのニックネームを表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>・フォロー　→　投稿したユーザーをフォローする（フォローを外す）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・つぶやきの内容　→　つぶやきの内容を表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>・いいね　→　つぶやきにいいねをつける（いいねを外す）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1313</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="71" name="グループ化 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D9BF91-169F-22BB-9869-10242B7CF8E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2286000" y="1371600"/>
+          <a:ext cx="3430313" cy="2057400"/>
+          <a:chOff x="2286000" y="1371600"/>
+          <a:chExt cx="3430313" cy="2057400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB43B914-FD7F-C8F5-1C55-81C6668D8860}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2286000" y="1371600"/>
+            <a:ext cx="3429000" cy="2057400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A39DA183-301A-2047-FD2B-544F7C8F789D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2286000" y="1371600"/>
+            <a:ext cx="2514600" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>ユーザー名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B11FB7C-74E7-DA7A-F359-120A7C64C284}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2286000" y="1600200"/>
+            <a:ext cx="3429000" cy="1600200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>つぶやきの内容</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="正方形/長方形 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED574490-99E8-458E-B960-ED74F438DA37}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4800600" y="1371600"/>
+            <a:ext cx="914400" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>削除</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="正方形/長方形 67">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BDFC25-5C97-463C-AF62-3ABDE738A541}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2287313" y="3200400"/>
+            <a:ext cx="3429000" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>投稿日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="グループ化 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0AA56C-B5C8-8DD4-A9E3-77200CF0821A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2286000" y="3657600"/>
+          <a:ext cx="3429000" cy="2057400"/>
+          <a:chOff x="2286000" y="3657600"/>
+          <a:chExt cx="3429000" cy="2057400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="正方形/長方形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3694458-88F1-95B6-3D1D-6A897321B881}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2295524" y="3657600"/>
+            <a:ext cx="3419476" cy="2057400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C2A671-E02F-D3E0-AAFD-1F3CC607D2BD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2295523" y="3657600"/>
+            <a:ext cx="2506335" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>ユーザー名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D802950C-3283-7731-A96E-BFEA9A089853}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2295524" y="3886201"/>
+            <a:ext cx="3419476" cy="1142999"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>つぶやきの内容</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="正方形/長方形 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5817A6DA-B323-BDCA-D265-DD029D480A95}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2295524" y="5029199"/>
+            <a:ext cx="3419476" cy="457200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>いいね</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="正方形/長方形 66">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E905319D-E365-39EE-F7EF-FBC1A966F1B2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4800601" y="3657600"/>
+            <a:ext cx="914399" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>フォロー</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="正方形/長方形 69">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{355C49D9-8BB1-41A9-BD97-C10BED5CBE92}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2286000" y="5486400"/>
+            <a:ext cx="3429000" cy="228600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-ea"/>
+                <a:ea typeface="+mn-ea"/>
+              </a:rPr>
+              <a:t>投稿日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5814,10 +7920,10 @@
     <xdr:ext cx="4114800" cy="685800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7530AE5-BA36-4C92-809E-CBDE8FD8383A}"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05DC6B5B-A0F5-4A1F-B5AF-1DA8A587F44E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5869,374 +7975,7 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BAFE64-AF20-44DA-BD59-DE92D21EFAE5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="914400"/>
-          <a:ext cx="6172200" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>⚠ユーザ名、またはパスワードが違います⚠</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2159566" cy="564514"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="吹き出し: 折線 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E1710B-28E3-4427-9B1A-1C9C8E33990F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="228600"/>
-          <a:ext cx="2159566" cy="564514"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ユーザー名またはパスワードが</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>違うときだけメッセージ表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2018501" cy="328360"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="吹き出し: 折線 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCC05BC5-E5B7-4D78-84A4-A1942283D20F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1828800" y="3657600"/>
-          <a:ext cx="2018501" cy="328360"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 18750"/>
-            <a:gd name="adj4" fmla="val -16667"/>
-            <a:gd name="adj5" fmla="val -91038"/>
-            <a:gd name="adj6" fmla="val -22665"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ユーザー登録画面へ遷移する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1877437" cy="564514"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="吹き出し: 折線 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB4A828-7998-43DB-819E-2A62BB933005}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5029200" y="2743200"/>
-          <a:ext cx="1877437" cy="564514"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout2">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 18750"/>
-            <a:gd name="adj4" fmla="val -16667"/>
-            <a:gd name="adj5" fmla="val 48383"/>
-            <a:gd name="adj6" fmla="val -58821"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ログインできたら</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>Ｃ．ＴＯＰ画面へ遷移する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4114800" cy="685800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05DC6B5B-A0F5-4A1F-B5AF-1DA8A587F44E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4114800" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Ｔｗｉｔｔｅｒ　Ｍｏｄｏｋｉ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6536,10 +8275,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D2A575-4A0E-4CF4-B889-633FFC04F8FA}">
-  <dimension ref="B2:C13"/>
+  <dimension ref="B2:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AO18" sqref="AO18"/>
+      <selection activeCell="C12" sqref="C12:C14"/>
+    </sheetView>
+    <sheetView topLeftCell="A5" workbookViewId="1">
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -6549,52 +8291,77 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.7">
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C12" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.7">
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="B15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.7">
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.7">
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.7">
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.7">
+      <c r="C19" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6608,13 +8375,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="1" max="16384" width="3" style="2"/>
-  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6627,13 +8392,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ22" sqref="AJ22"/>
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="1" max="16384" width="3" style="2"/>
-  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6645,14 +8408,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97006AD3-CD6D-480B-9241-DB6A957D0DD3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="1" max="16384" width="3" style="2"/>
-  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6665,13 +8426,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="1" max="16384" width="3" style="2"/>
-  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6683,14 +8442,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473F40E7-4E7B-4027-9542-7B3713CE6311}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB14" sqref="BB14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="1" max="16384" width="3" style="2"/>
-  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6702,14 +8459,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA65DF6-010A-4002-B827-DC8DD476D1CA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BM23" sqref="BM23"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
-  <cols>
-    <col min="1" max="16384" width="3" style="2"/>
-  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6724,6 +8479,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="S29" sqref="S29"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -6743,6 +8499,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>

--- a/doc/02.画面設計/画面設計書.xlsx
+++ b/doc/02.画面設計/画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620DD270-475A-4964-9436-E34F2778032F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D27D4F9-DCC6-4ABB-AC8C-F7BBAC3DF334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7380" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="788" firstSheet="11" activeTab="15" xr2:uid="{E04097C9-7F50-4AF4-8BDF-3B1ACEA48152}"/>
+    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" tabRatio="788" activeTab="15" xr2:uid="{E04097C9-7F50-4AF4-8BDF-3B1ACEA48152}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -1113,25 +1113,98 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5943600" cy="685800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA16DA1C-EF79-4B4B-B4AA-073DDC3210C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5943600" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>Ｔｗｉｔｔｅｒ　Ｍｏｄｏｋｉ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>226233</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2367</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21BC513-3963-44F8-9056-C498F7ED62A7}"/>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81EB88B-AE71-4458-B7D7-7F186DF113C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +1212,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="226233" y="1372530"/>
+          <a:off x="228600" y="1372530"/>
           <a:ext cx="4574367" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1181,13 +1254,16 @@
             </a:rPr>
             <a:t>アカウント名（ユーザーＩＤ）</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1195,103 +1271,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5371C043-2C9B-4691-8D5C-88DB6CC51228}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="226232" y="2058330"/>
-          <a:ext cx="1600200" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>メールアドレス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
+      <xdr:colOff>11890</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2367</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50699E1F-196A-472B-8E2D-F83DDFF3B270}"/>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC9EDEA-B9F9-4980-A360-61AB4AF920FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1295,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238123" y="1600200"/>
+          <a:off x="240490" y="1600200"/>
           <a:ext cx="5476877" cy="229530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1345,9 +1341,112 @@
             </a:rPr>
             <a:t>ユーザー登録時のアカウント名（ユーザーＩＤ）</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2367</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9496</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFBF639-11ED-49A3-AE8A-1C6468BC1D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="230967" y="914400"/>
+          <a:ext cx="4579129" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>下記の項目を入力して下さい。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>項目は入力必須）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
@@ -1361,21 +1460,104 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988808CF-0222-4AAD-8278-C0E1AFD20FBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="2057400"/>
+          <a:ext cx="1600200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>メールアドレス </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2368</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>227670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2368</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>227670</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29AB7F3-EB97-4896-AF10-89CA9F967957}"/>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9D30D86-23ED-4A1D-BBA0-E3EB6B80E605}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1565,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="2286000"/>
+          <a:off x="230968" y="2285070"/>
           <a:ext cx="5486400" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1429,6 +1611,453 @@
             </a:rPr>
             <a:t>ユーザー登録時のメールアドレス</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2368</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>227670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2368</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>227670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{446447FF-2C80-4256-8DBC-B6E98F1C68DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="230968" y="2742270"/>
+          <a:ext cx="5486400" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ニックネーム（一覧画面での表示名）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2368</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2368</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09C33CC-65BB-49A1-A754-84D259A28DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="230968" y="2972321"/>
+          <a:ext cx="5486400" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ユーザー登録時のニックネーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="457200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DF408E-889D-469D-AB03-032DDFD5BED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800850" y="1952625"/>
+          <a:ext cx="1454244" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テキスト形式を使用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="右中かっこ 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{157C02FA-F9FB-4844-95C4-C9D4AE8F2A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="1724025"/>
+          <a:ext cx="771525" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 21913"/>
+            <a:gd name="adj2" fmla="val 27652"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF75B686-E1F8-49E1-B91B-E211757B69EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="3429000"/>
+          <a:ext cx="5486400" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>プロフィール画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495FFAA3-8C70-428A-8314-D654EE69CD94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228601" y="3657600"/>
+          <a:ext cx="1828800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>画像ファイルを選択</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -1443,23 +2072,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1437</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB4C73E4-251F-4912-820E-1BCBFCD81B6F}"/>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8AD0451-6FFE-4FE4-A176-76934A637E3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,12 +2096,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="4802037"/>
-          <a:ext cx="1143000" cy="455763"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+          <a:off x="2286000" y="3657600"/>
+          <a:ext cx="2514600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1494,35 +2129,718 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>修正</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ユーザー登録時の画像ファイル名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3147015" cy="1208921"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="吹き出し: 折線 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1B69381-14DE-4317-92D3-486EB6D90B49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="2971800"/>
+          <a:ext cx="3147015" cy="1208921"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 65498"/>
+            <a:gd name="adj6" fmla="val -59720"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ユーザー登録時に画像ファイルを選択したとき</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>・ファイル名と選択した画像を表示する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>選択しなかったとき</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" b="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>・「選択されていません」表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="457200"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{015FEC75-810D-48F7-AEF3-C107663E40F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="5029200"/>
+          <a:ext cx="1454244" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テキスト形式を使用</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>188844</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>45969</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="右中かっこ 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEABA210-38CF-4038-8AA2-C0D752B7C6E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5903844" y="4962525"/>
+          <a:ext cx="771525" cy="1371601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 21913"/>
+            <a:gd name="adj2" fmla="val 27652"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="グラフィックス 79" descr="ピエロ 単色塗りつぶし">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4A297B-A495-47FE-91A2-DB0B7FA75AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="3886200"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1437</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CF6EE3-EF6A-4C07-825B-AEFB2DD0DC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228601" y="5715000"/>
+          <a:ext cx="1828800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>パスワード（再確認）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8401C0A1-9FED-4618-853F-E91BED958DF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="5943600"/>
+          <a:ext cx="5486400" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD04FA00-EE85-467E-BE4F-1E04E8D05D77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="5029200"/>
+          <a:ext cx="1600200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>パスワード </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8F1194-3816-4F7E-AA21-8B90F761C63E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="5259251"/>
+          <a:ext cx="5486400" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>227163</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="四角形: 角を丸くする 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD56203-4341-4331-8247-D37FD9B2C7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="6629400"/>
+          <a:ext cx="1143000" cy="455763"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B720487-DFD1-4282-8270-01E4CF8D79E5}"/>
+        <xdr:cNvPr id="86" name="四角形: 角を丸くする 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F0DB85-2399-4C07-AB16-20F16646F3EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,8 +2848,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="4802037"/>
-          <a:ext cx="1143000" cy="455763"/>
+          <a:off x="2057400" y="6635599"/>
+          <a:ext cx="1143000" cy="451001"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1569,18 +2887,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>199600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>191951</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4685385" cy="800412"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="吹き出し: 折線 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3074E1B5-C1CC-4C58-B58B-72FBFB160BEA}"/>
+        <xdr:cNvPr id="87" name="吹き出し: 折線 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C791D5-77E1-469A-A5E0-B06309B88370}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,7 +2906,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1876000" y="5715000"/>
+          <a:off x="1799800" y="7507151"/>
           <a:ext cx="4685385" cy="800412"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
@@ -1625,27 +2943,55 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>・修正　→　Ｄ－３．ユーザー情報を修正する（確認）へ遷移</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>・リセット　→　ページはそのままで全項目をクリアする</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>・ＴＯＰ画面へ戻る　→　Ｃ．ＴＯＰ画面（つぶやき一覧画面）へ遷移</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1653,578 +2999,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>2367</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A332B046-42D0-4D3C-BFF2-4E72C0CB8FAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="914400"/>
-          <a:ext cx="4574367" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>下記の項目を入力して下さい。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>（全項目入力必須）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44AC6D33-7F03-462B-8C96-5C9853DE0872}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="2743200"/>
-          <a:ext cx="5486400" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ニックネーム（一覧画面での表示名）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1451</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C144D0D2-42F4-4480-BD7F-087670BBE5EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="2973251"/>
-          <a:ext cx="5486400" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ユーザー登録時のニックネーム</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40189D93-CDBA-4A52-B97B-647431EAF71B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="3429000"/>
-          <a:ext cx="1600200" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>パスワード</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1451</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA806494-58CB-4AE6-9881-5BA981288568}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="3659051"/>
-          <a:ext cx="5486400" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41204DC3-EBED-48F4-A6A4-CD5A3677B43E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="4114800"/>
-          <a:ext cx="1600200" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>パスワード（再確認）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AF90FE3-4985-4011-8172-EB3323C86F28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="4343400"/>
-          <a:ext cx="5486400" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>221962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>227163</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E845747-3905-46FD-BC23-D34A273253A6}"/>
+        <xdr:cNvPr id="88" name="四角形: 角を丸くする 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{452223A6-B58D-4AE4-A100-B2E63E35FED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,8 +3023,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="4800600"/>
-          <a:ext cx="1828800" cy="455763"/>
+          <a:off x="3657600" y="6622762"/>
+          <a:ext cx="1828800" cy="463838"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2262,7 +3053,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ＴＯＰ画面へ戻る</a:t>
+            <a:t>ログイン画面へ戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2272,22 +3063,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>122375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="四角形: 角を丸くする 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535FB27B-D68B-43B9-893F-44C99672F2C7}"/>
+        <xdr:cNvPr id="89" name="四角形: 角を丸くする 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B27012-D670-47A1-9F18-8C48674A8FC7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,8 +3086,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="4686300"/>
-          <a:ext cx="5314950" cy="695325"/>
+          <a:off x="285750" y="6496050"/>
+          <a:ext cx="5323025" cy="695326"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2336,20 +3127,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1454244" cy="457200"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E43990C-C457-4087-A2D4-BE4C0D0F5A99}"/>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>220842</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4967514" cy="2088970"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11342AA5-1891-4AF8-BEFA-432DF36B5DC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2357,8 +3153,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629400" y="2286000"/>
-          <a:ext cx="1454244" cy="457200"/>
+          <a:off x="6629400" y="1592442"/>
+          <a:ext cx="4967514" cy="2088970"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2382,7 +3178,7 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
+          <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -2393,8 +3189,100 @@
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>テキスト形式を使用</a:t>
-          </a:r>
+            <a:t>登録後エラーがある項目欄に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>赤文字でエラーメッセージを表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラーチェック内容</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・アカウント名　→　空白チェック、文字数チェック</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・メールアドレス　→　空白チェック、文字数チェック、正規表現チェック</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ニックネーム　→　空白チェック、文字数チェック</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・パスワード　→　空白チェック、正規表現チェック、ダブルチェック</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2403,22 +3291,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="右中かっこ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55F7D57-81F6-4F89-B797-7AEAC9B867D0}"/>
+        <xdr:cNvPr id="17" name="右中かっこ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F33C835-7968-4381-8482-CACC427DFD19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,8 +3314,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5800725" y="1828800"/>
-          <a:ext cx="771525" cy="2514600"/>
+          <a:off x="5857875" y="1704975"/>
+          <a:ext cx="542925" cy="3448050"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2468,6 +3356,294 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6801349" cy="2797048"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB483EB3-4F26-4125-9A1E-F2DF15F03322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="4114800"/>
+          <a:ext cx="6801349" cy="2797048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>エラーメッセージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・空白チェック　→　「入力必須項目です。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・文字数チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　アカウント名　→　「アカウント名は５０文字以下で入力して下さい。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　メールアドレス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　→　「メールアドレスは５０文字以下で入力して下さい。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　ニックネーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>　→　「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ニックネーム</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>は５０文字以下で入力して下さい。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・正規表現チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　メールアドレス　→　「メールアドレスは </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>xxx@xxx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> の形式で入力して下さい。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　パスワード　→　「パスワードは半角英数大文字小文字１文字含む８文字以上で入力して下さい。」</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・ダブルチェック　→　「パスワードが一致しません。」</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -2476,10 +3652,10 @@
     <xdr:ext cx="5943600" cy="685800"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA16DA1C-EF79-4B4B-B4AA-073DDC3210C2}"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9C15F5-9002-4771-9D73-7FA1E295BA9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,30 +3715,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>226233</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
+      <xdr:rowOff>2380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D626BEE-937C-4C6C-8FE0-17D4BC58D787}"/>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738B4BFF-B44A-4E74-9369-92B562409570}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,8 +3741,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="226233" y="1372530"/>
-          <a:ext cx="4574367" cy="228600"/>
+          <a:off x="4114800" y="1373980"/>
+          <a:ext cx="1600200" cy="226220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2605,16 +3776,16 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>アカウント名（ユーザーＩＤ）</a:t>
+            <a:t>エラーメッセージ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
@@ -2626,23 +3797,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
+      <xdr:rowOff>2380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>226232</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>930</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EE3EB4B-FAE0-4C01-874D-96612FB20903}"/>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540B8508-71E0-4802-8CFF-4C341FB018D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,8 +3821,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="226232" y="2058330"/>
-          <a:ext cx="1600200" cy="228600"/>
+          <a:off x="4114800" y="2059780"/>
+          <a:ext cx="1600200" cy="226220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2685,16 +3856,16 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>メールアドレス</a:t>
+            <a:t>エラーメッセージ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
@@ -2706,23 +3877,186 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>226220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5ECEB2-7C56-40ED-9071-B28590BDE700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="2743200"/>
+          <a:ext cx="1600200" cy="226220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>エラーメッセージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>2367</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5BA89E-0EF5-456F-8F50-CB51033B501A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="1372530"/>
+          <a:ext cx="4574367" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>アカウント名（ユーザーＩＤ）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11890</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2367</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>930</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256A68D9-6863-48EF-B11F-442A5DAED69F}"/>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627ADCD1-536B-47AF-9DD2-7DF109E9D46E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2730,7 +4064,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="238123" y="1600200"/>
+          <a:off x="240490" y="1600200"/>
           <a:ext cx="5476877" cy="229530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2766,6 +4100,116 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2367</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9496</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF030CD-42EC-46CD-9AB4-0173B47342C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="230967" y="914400"/>
+          <a:ext cx="4579129" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>下記の項目を入力して下さい。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>項目は入力必須）</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -2782,21 +4226,104 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE9AAC6-8282-4C59-A84E-F1EE177CB389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="2057400"/>
+          <a:ext cx="1600200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>メールアドレス </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2368</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>227670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2368</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>227670</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9362BA3-DEA2-4460-83CB-D2CF29C84D8D}"/>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0CED95-8235-4BC7-989A-B7F2530390A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +4331,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="2286000"/>
+          <a:off x="230968" y="2285070"/>
           <a:ext cx="5486400" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2840,303 +4367,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ADD288E-CD73-415C-83B7-4A9C76197EFB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="457200" y="4802037"/>
-          <a:ext cx="1143000" cy="455763"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>修正</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>1437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28904D6-BC16-4CF5-98B7-11E5C4AE21B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2057400" y="4802037"/>
-          <a:ext cx="1143000" cy="455763"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>リセット</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>2367</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0826E2B0-6765-4A17-89CA-42C9A5FEBFF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="914400"/>
-          <a:ext cx="4574367" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>下記の項目を入力して下さい。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>（全項目入力必須）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF0DB4C-D341-4667-966D-0F2A3C3AAC4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="2743200"/>
-          <a:ext cx="5486400" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ニックネーム（一覧画面での表示名）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -3151,22 +4382,105 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1451</xdr:rowOff>
+      <xdr:colOff>2368</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>227670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>2368</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>227670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F32108C-36A4-438E-843C-1046BD199ED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="230968" y="2742270"/>
+          <a:ext cx="5486400" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ニックネーム（一覧画面での表示名）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2368</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>2368</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1451</xdr:rowOff>
+      <xdr:rowOff>521</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13DA4A0-EFC2-4612-A8E5-D48420421140}"/>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56DF90C-5677-4C26-A059-C866E9AFA37A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3174,7 +4488,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="2973251"/>
+          <a:off x="230968" y="2972321"/>
           <a:ext cx="5486400" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3210,9 +4524,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
@@ -3230,17 +4544,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2654E506-B106-42F2-9C3F-1C7B300819F7}"/>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D8E0DF2-3877-400A-A09F-0CF46CAB6DAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +4563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="228600" y="3429000"/>
-          <a:ext cx="1600200" cy="228600"/>
+          <a:ext cx="5486400" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3288,7 +4602,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>パスワード</a:t>
+            <a:t>プロフィール画像</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
             <a:solidFill>
@@ -3305,22 +4619,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1451</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1451</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81F090DE-CDBF-4857-BD44-81FBB3FEFB07}"/>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FB1291-2CAA-40E7-A8AB-230FAF33DDE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,8 +4642,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="3659051"/>
-          <a:ext cx="5486400" cy="228600"/>
+          <a:off x="228601" y="3657600"/>
+          <a:ext cx="1828800" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3364,87 +4678,17 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4288CC78-2A35-43E2-9C4F-57A5EF122FD6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="4114800"/>
-          <a:ext cx="1600200" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>パスワード（再確認）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:t>画像ファイルを選択</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -3458,23 +4702,314 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>227149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E66EE5F-BF71-4BBF-A6E5-86B6D1DE6480}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="3657600"/>
+          <a:ext cx="1827349" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>選択されていません</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="四角形: 角を丸くする 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED585A65-3B0E-4883-B97B-B03DFA6F676A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="5487837"/>
+          <a:ext cx="1143000" cy="455763"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>修正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="四角形: 角を丸くする 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF886CB9-0294-4CFA-A99D-3699C962B8E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="5487837"/>
+          <a:ext cx="1143000" cy="455763"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>リセット</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1A49F4-993E-4836-B970-16EE9D9D3B81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="4114800"/>
+          <a:ext cx="1600200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>パスワード </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1451</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD4A9DA-5284-4D91-BFC5-500522734EE1}"/>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BEDB886-4601-43A5-B35B-608ADD1CFD8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3482,7 +5017,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="4343400"/>
+          <a:off x="228600" y="4344851"/>
           <a:ext cx="5486400" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3518,9 +5053,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:latin typeface="+mn-ea"/>
             <a:ea typeface="+mn-ea"/>
@@ -3532,23 +5067,180 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3124531F-7E8E-4E1F-AADE-225DED3DE7D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228601" y="4800600"/>
+          <a:ext cx="1828800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>パスワード（再確認）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3BAA8AD-A0C7-4791-873F-966D82A6C2F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="5029200"/>
+          <a:ext cx="5486400" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>227163</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10A9429-A023-4F39-82BB-452CD7CC60E6}"/>
+        <xdr:cNvPr id="69" name="四角形: 角を丸くする 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0276E3F-EBF1-4074-AD6E-C41C9312FD64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,8 +5248,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="4800600"/>
-          <a:ext cx="1828800" cy="455763"/>
+          <a:off x="3657600" y="5486400"/>
+          <a:ext cx="1828800" cy="459076"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3593,608 +5285,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>220842</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4967514" cy="2088970"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11342AA5-1891-4AF8-BEFA-432DF36B5DC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6629400" y="1592442"/>
-          <a:ext cx="4967514" cy="2088970"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>登録後エラーがある項目欄に</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>赤文字でエラーメッセージを表示する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エラーチェック内容</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・アカウント名　→　空白チェック、文字数チェック</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・メールアドレス　→　空白チェック、文字数チェック、正規表現チェック</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・ニックネーム　→　空白チェック、文字数チェック</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・パスワード　→　空白チェック、正規表現チェック、ダブルチェック</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="右中かっこ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F33C835-7968-4381-8482-CACC427DFD19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5857875" y="1704975"/>
-          <a:ext cx="542925" cy="2800350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 21913"/>
-            <a:gd name="adj2" fmla="val 27652"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6801349" cy="2797048"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB483EB3-4F26-4125-9A1E-F2DF15F03322}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6629400" y="4114800"/>
-          <a:ext cx="6801349" cy="2797048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr" anchorCtr="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エラーメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・空白チェック　→　「入力必須項目です。」</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・文字数チェック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　アカウント名　→　「アカウント名は５０文字以下で入力して下さい。」</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　メールアドレス</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　→　「メールアドレスは５０文字以下で入力して下さい。」</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　ニックネーム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>　→　「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ニックネーム</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>は５０文字以下で入力して下さい。」</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・正規表現チェック</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　メールアドレス　→　「メールアドレスは </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>xxx@xxx</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> の形式で入力して下さい。」</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　パスワード　→　「パスワードは半角英数大文字小文字１文字含む８文字以上で入力して下さい。」</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・ダブルチェック　→　「パスワードが一致しません。」</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5943600" cy="685800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9C15F5-9002-4771-9D73-7FA1E295BA9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5943600" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0070C0"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>Ｔｗｉｔｔｅｒ　Ｍｏｄｏｋｉ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>226218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>226220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A33AA5-00F3-448F-BE79-DAC08C577EEC}"/>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE809A23-2016-4677-8C24-F4E9C6521C8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4202,7 +5311,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="1373980"/>
+          <a:off x="4114800" y="4114800"/>
           <a:ext cx="1600200" cy="226220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4260,101 +5369,21 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>2380</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC948493-6E08-4063-9361-6794D70C77F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="2059780"/>
-          <a:ext cx="1600200" cy="226220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>エラーメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>226220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50B9EEF3-5E18-4312-8A2A-A378C0C1EEE3}"/>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F84D8FD7-5B3E-47DF-9A13-B18C098AA68B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4362,167 +5391,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4114800" y="2743200"/>
-          <a:ext cx="1600200" cy="226220"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>エラーメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2380</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA9003E-9787-48EA-A7F8-C6BA3A91956E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="3438522"/>
-          <a:ext cx="1600200" cy="221458"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>エラーメッセージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>2380</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94814C15-C9BE-41A2-822C-C29E787F150A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4114800" y="4117180"/>
+          <a:off x="4114800" y="4800600"/>
           <a:ext cx="1600200" cy="226220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9894,9 +10763,9 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>128840</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3147015" cy="328360"/>
+      <xdr:rowOff>133602</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2582758" cy="328360"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="吹き出し: 折線 9">
@@ -9910,8 +10779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="6986840"/>
-          <a:ext cx="3147015" cy="328360"/>
+          <a:off x="1828800" y="6991602"/>
+          <a:ext cx="2582758" cy="328360"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -9958,7 +10827,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Ｃ．ＴＯＰ画面（つぶやき一覧画面）</a:t>
+            <a:t>Ｃ－３．トークルーム一覧へ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
@@ -17405,8 +18274,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2286000" y="1371600"/>
-          <a:ext cx="3430313" cy="2057400"/>
+          <a:off x="2329132" y="1414732"/>
+          <a:ext cx="3495011" cy="2122098"/>
           <a:chOff x="2286000" y="1371600"/>
           <a:chExt cx="3430313" cy="2057400"/>
         </a:xfrm>
@@ -17775,8 +18644,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2286000" y="3657600"/>
-          <a:ext cx="3429000" cy="2057400"/>
+          <a:off x="2329132" y="3772619"/>
+          <a:ext cx="3493698" cy="2122098"/>
           <a:chOff x="2286000" y="3657600"/>
           <a:chExt cx="3429000" cy="2057400"/>
         </a:xfrm>
@@ -21156,143 +22025,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFBFEBDE-D1BC-4016-92C6-5924CE042D72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="228600" y="6172200"/>
-          <a:ext cx="9372600" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1437</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0EC76E5-F0D4-4924-9A19-3C180E62AE98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9829800" y="6173637"/>
-          <a:ext cx="1143000" cy="455763"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>つぶやく</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -23227,8 +23959,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1600200" y="2057400"/>
-          <a:ext cx="5943600" cy="2743200"/>
+          <a:off x="1630680" y="2116183"/>
+          <a:ext cx="6056811" cy="2821577"/>
           <a:chOff x="2057400" y="7086600"/>
           <a:chExt cx="5943600" cy="2743200"/>
         </a:xfrm>
@@ -24459,8 +25191,8 @@
   </sheetPr>
   <dimension ref="B2:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -24571,8 +25303,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BL22" sqref="BL22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -24595,15 +25327,15 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
@@ -24619,8 +25351,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -24643,15 +25375,15 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN27" sqref="AN27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
@@ -24667,8 +25399,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -24691,8 +25423,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ36" sqref="AZ36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -24716,7 +25448,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -24739,8 +25471,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -24763,15 +25495,15 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC28" sqref="AC28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="82" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
@@ -24787,15 +25519,15 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="45" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>&amp;P / &amp;N ページ</oddFooter>
@@ -24811,8 +25543,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ17" sqref="AZ17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -24835,8 +25567,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -24859,8 +25591,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE5" sqref="BE5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -24883,8 +25615,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -24907,8 +25639,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>

--- a/doc/02.画面設計/画面設計書.xlsx
+++ b/doc/02.画面設計/画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D27D4F9-DCC6-4ABB-AC8C-F7BBAC3DF334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E702C-B99C-4C8A-A832-7E66424D01CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" tabRatio="788" activeTab="15" xr2:uid="{E04097C9-7F50-4AF4-8BDF-3B1ACEA48152}"/>
+    <workbookView xWindow="-7380" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="788" firstSheet="1" activeTab="2" xr2:uid="{E04097C9-7F50-4AF4-8BDF-3B1ACEA48152}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -971,7 +971,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2018501" cy="328360"/>
+    <xdr:ext cx="3288080" cy="328360"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="吹き出し: 折線 13">
@@ -986,7 +986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1828800" y="3657600"/>
-          <a:ext cx="2018501" cy="328360"/>
+          <a:ext cx="3288080" cy="328360"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -994,7 +994,7 @@
             <a:gd name="adj2" fmla="val -8333"/>
             <a:gd name="adj3" fmla="val 18750"/>
             <a:gd name="adj4" fmla="val -16667"/>
-            <a:gd name="adj5" fmla="val -91038"/>
+            <a:gd name="adj5" fmla="val -108443"/>
             <a:gd name="adj6" fmla="val -22665"/>
           </a:avLst>
         </a:prstGeom>
@@ -1025,7 +1025,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ユーザー登録画面へ遷移する</a:t>
+            <a:t>Ｂ－１．ユーザーを追加する（通常）へ遷移する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3053,7 +3053,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ログイン画面へ戻る</a:t>
+            <a:t>ＴＯＰ画面へ戻る</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -18274,8 +18274,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2329132" y="1414732"/>
-          <a:ext cx="3495011" cy="2122098"/>
+          <a:off x="2286000" y="1371600"/>
+          <a:ext cx="3430313" cy="2057400"/>
           <a:chOff x="2286000" y="1371600"/>
           <a:chExt cx="3430313" cy="2057400"/>
         </a:xfrm>
@@ -18644,8 +18644,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2329132" y="3772619"/>
-          <a:ext cx="3493698" cy="2122098"/>
+          <a:off x="2286000" y="3657600"/>
+          <a:ext cx="3429000" cy="2057400"/>
           <a:chOff x="2286000" y="3657600"/>
           <a:chExt cx="3429000" cy="2057400"/>
         </a:xfrm>
@@ -20523,8 +20523,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2327189" y="1408670"/>
-          <a:ext cx="3492097" cy="2113006"/>
+          <a:off x="2286000" y="1371600"/>
+          <a:ext cx="3430313" cy="2057400"/>
           <a:chOff x="2286000" y="1371600"/>
           <a:chExt cx="3430313" cy="2057400"/>
         </a:xfrm>
@@ -21033,8 +21033,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2327189" y="3756454"/>
-          <a:ext cx="3492097" cy="2113005"/>
+          <a:off x="2286000" y="3657600"/>
+          <a:ext cx="3430313" cy="2057400"/>
           <a:chOff x="2286000" y="1371600"/>
           <a:chExt cx="3430313" cy="2057400"/>
         </a:xfrm>
@@ -22209,8 +22209,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2326105" y="1407695"/>
-          <a:ext cx="3490471" cy="2111542"/>
+          <a:off x="2286000" y="1371600"/>
+          <a:ext cx="3430313" cy="2057400"/>
           <a:chOff x="2286000" y="1371600"/>
           <a:chExt cx="3430313" cy="2057400"/>
         </a:xfrm>
@@ -22579,8 +22579,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2326105" y="3753853"/>
-          <a:ext cx="3489158" cy="2111542"/>
+          <a:off x="2286000" y="3657600"/>
+          <a:ext cx="3429000" cy="2057400"/>
           <a:chOff x="2286000" y="3657600"/>
           <a:chExt cx="3429000" cy="2057400"/>
         </a:xfrm>
@@ -23959,8 +23959,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1630680" y="2116183"/>
-          <a:ext cx="6056811" cy="2821577"/>
+          <a:off x="1600200" y="2057400"/>
+          <a:ext cx="5943600" cy="2743200"/>
           <a:chOff x="2057400" y="7086600"/>
           <a:chExt cx="5943600" cy="2743200"/>
         </a:xfrm>
@@ -25191,7 +25191,7 @@
   </sheetPr>
   <dimension ref="B2:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25303,7 +25303,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25327,8 +25327,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -25351,7 +25351,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25375,7 +25375,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25399,7 +25399,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25423,7 +25423,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25447,7 +25447,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25471,8 +25471,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -25496,7 +25496,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+      <selection activeCell="BB12" sqref="BB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -25519,7 +25519,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25543,7 +25543,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25567,7 +25567,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25591,7 +25591,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25615,7 +25615,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25639,7 +25639,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>

--- a/doc/02.画面設計/画面設計書.xlsx
+++ b/doc/02.画面設計/画面設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E702C-B99C-4C8A-A832-7E66424D01CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F9AC07-4A56-496C-B7B2-D5C832C59346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7380" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="788" firstSheet="1" activeTab="2" xr2:uid="{E04097C9-7F50-4AF4-8BDF-3B1ACEA48152}"/>
+    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" tabRatio="788" firstSheet="11" activeTab="15" xr2:uid="{E04097C9-7F50-4AF4-8BDF-3B1ACEA48152}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -16425,7 +16425,7 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3429144" cy="972639"/>
+    <xdr:ext cx="2300630" cy="972639"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="吹き出し: 折線 20">
@@ -16439,8 +16439,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5714856" y="2514600"/>
-          <a:ext cx="3429144" cy="972639"/>
+          <a:off x="5714856" y="2462213"/>
+          <a:ext cx="2300630" cy="972639"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout2">
           <a:avLst>
@@ -16448,8 +16448,8 @@
             <a:gd name="adj2" fmla="val -8333"/>
             <a:gd name="adj3" fmla="val 18750"/>
             <a:gd name="adj4" fmla="val -16667"/>
-            <a:gd name="adj5" fmla="val 30432"/>
-            <a:gd name="adj6" fmla="val -71775"/>
+            <a:gd name="adj5" fmla="val 41204"/>
+            <a:gd name="adj6" fmla="val -109244"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln/>
@@ -16499,7 +16499,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>・未選択時：「プロフィール画像登録なし」を表示</a:t>
+            <a:t>・未選択時：「登録なし」を表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -25447,8 +25447,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -25495,8 +25495,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BB12" sqref="BB12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -25519,7 +25519,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
@@ -25544,7 +25544,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -25615,7 +25615,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>

--- a/doc/02.画面設計/画面設計書.xlsx
+++ b/doc/02.画面設計/画面設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\laravel\Portfolio_TwitterApp\doc\02.画面設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F9AC07-4A56-496C-B7B2-D5C832C59346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C70C5C-FA9C-4D70-BD3D-1428927959BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" tabRatio="788" firstSheet="11" activeTab="15" xr2:uid="{E04097C9-7F50-4AF4-8BDF-3B1ACEA48152}"/>
+    <workbookView xWindow="21420" yWindow="-16455" windowWidth="29040" windowHeight="15720" tabRatio="788" firstSheet="4" activeTab="11" xr2:uid="{E04097C9-7F50-4AF4-8BDF-3B1ACEA48152}"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -3136,10 +3136,10 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>220842</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4967514" cy="2088970"/>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4967514" cy="1916743"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="正方形/長方形 15">
@@ -3153,8 +3153,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6629400" y="1592442"/>
-          <a:ext cx="4967514" cy="2088970"/>
+          <a:off x="6629400" y="1600200"/>
+          <a:ext cx="4967514" cy="1916743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3275,14 +3275,6 @@
             </a:rPr>
             <a:t>・パスワード　→　空白チェック、正規表現チェック、ダブルチェック</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -25351,8 +25343,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AY28" sqref="AY28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BE10" sqref="BE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -25447,7 +25439,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
